--- a/results_method1_and_2/chartbars/classical_approach_echos_c.xlsx
+++ b/results_method1_and_2/chartbars/classical_approach_echos_c.xlsx
@@ -1,26 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f69e34da3c4bcbcf/PhD/method1/echos_c/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f69e34da3c4bcbcf/PhD/method1_2/echos_c/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="99" documentId="8_{6F265AE1-85AB-4D82-88FE-4DA6E6189E7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{26A436C2-E99E-412B-B924-A5AFA5951F7D}"/>
+  <xr:revisionPtr revIDLastSave="123" documentId="8_{6F265AE1-85AB-4D82-88FE-4DA6E6189E7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9145E160-40C4-4861-9151-4E29D4A8D940}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="classical_echos_a" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029" calcCompleted="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="18">
   <si>
     <t>pro-karykis</t>
   </si>
@@ -578,7 +589,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
@@ -588,50 +599,51 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="20% - Έμφαση1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Έμφαση2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Έμφαση3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Έμφαση4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Έμφαση5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Έμφαση6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Έμφαση1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Έμφαση2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Έμφαση3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Έμφαση4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Έμφαση5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Έμφαση6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Έμφαση1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Έμφαση2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Έμφαση3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Έμφαση4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Έμφαση5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Έμφαση6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Εισαγωγή" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Έλεγχος κελιού" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Έμφαση1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Έμφαση2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Έμφαση3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Έμφαση4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Έμφαση5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Έμφαση6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Έξοδος" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Επεξηγηματικό κείμενο" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Επικεφαλίδα 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Επικεφαλίδα 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Επικεφαλίδα 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Επικεφαλίδα 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Κακό" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Καλό" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
+    <cellStyle name="Ουδέτερο" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Προειδοποιητικό κείμενο" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Σημείωση" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Συνδεδεμένο κελί" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Σύνολο" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Τίτλος" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Υπολογισμός" xfId="11" builtinId="22" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -649,7 +661,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="el-GR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -750,9 +762,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>classical_echos_a!$Q$3:$W$3</c:f>
+              <c:f>classical_echos_a!$Q$3:$V$3</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>G</c:v>
                 </c:pt>
@@ -770,19 +782,16 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>e</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>f</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>classical_echos_a!$Q$4:$W$4</c:f>
+              <c:f>classical_echos_a!$Q$4:$V$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -799,9 +808,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -839,9 +845,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>classical_echos_a!$Q$3:$W$3</c:f>
+              <c:f>classical_echos_a!$Q$3:$V$3</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>G</c:v>
                 </c:pt>
@@ -859,19 +865,16 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>e</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>f</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>classical_echos_a!$Q$5:$W$5</c:f>
+              <c:f>classical_echos_a!$Q$5:$V$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -882,16 +885,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -928,9 +928,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>classical_echos_a!$Q$3:$W$3</c:f>
+              <c:f>classical_echos_a!$Q$3:$V$3</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>G</c:v>
                 </c:pt>
@@ -948,19 +948,16 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>e</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>f</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>classical_echos_a!$Q$6:$W$6</c:f>
+              <c:f>classical_echos_a!$Q$6:$V$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -977,9 +974,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1201,7 +1195,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="el-GR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1641,7 +1635,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="el-GR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2183,7 +2177,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="el-GR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5019,7 +5013,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Θέμα του Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -5317,8 +5311,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:W28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L6" sqref="A2:L6"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5402,30 +5396,28 @@
       <c r="L3" s="3">
         <v>0</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="P3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="Q3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="R3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="S3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="T3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="U3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="V3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="W3" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="W3" s="5"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -5464,30 +5456,28 @@
       <c r="L4" s="3">
         <v>0</v>
       </c>
-      <c r="P4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>0</v>
-      </c>
-      <c r="R4" s="1">
+      <c r="P4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>0</v>
+      </c>
+      <c r="R4" s="3">
         <v>8</v>
       </c>
-      <c r="S4" s="1">
-        <v>0</v>
-      </c>
-      <c r="T4" s="1">
+      <c r="S4" s="3">
+        <v>0</v>
+      </c>
+      <c r="T4" s="3">
         <v>8</v>
       </c>
-      <c r="U4" s="1">
-        <v>0</v>
-      </c>
-      <c r="V4" s="1">
-        <v>0</v>
-      </c>
-      <c r="W4" s="1">
-        <v>0</v>
-      </c>
+      <c r="U4" s="3">
+        <v>0</v>
+      </c>
+      <c r="V4" s="3">
+        <v>0</v>
+      </c>
+      <c r="W4" s="5"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
@@ -5526,30 +5516,28 @@
       <c r="L5" s="3">
         <v>0</v>
       </c>
-      <c r="P5" s="2" t="s">
+      <c r="P5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q5" s="1">
-        <v>0</v>
-      </c>
-      <c r="R5" s="1">
-        <v>0</v>
-      </c>
-      <c r="S5" s="1">
-        <v>0</v>
-      </c>
-      <c r="T5" s="1">
-        <v>3</v>
-      </c>
-      <c r="U5" s="1">
-        <v>12</v>
-      </c>
-      <c r="V5" s="1">
+      <c r="Q5" s="3">
+        <v>0</v>
+      </c>
+      <c r="R5" s="3">
+        <v>0</v>
+      </c>
+      <c r="S5" s="3">
+        <v>0</v>
+      </c>
+      <c r="T5" s="3">
+        <v>4</v>
+      </c>
+      <c r="U5" s="3">
+        <v>11</v>
+      </c>
+      <c r="V5" s="3">
         <v>1</v>
       </c>
-      <c r="W5" s="1">
-        <v>0</v>
-      </c>
+      <c r="W5" s="5"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -5588,30 +5576,34 @@
       <c r="L6" s="3">
         <v>0</v>
       </c>
-      <c r="P6" s="2" t="s">
+      <c r="P6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Q6" s="1">
-        <v>0</v>
-      </c>
-      <c r="R6" s="1">
-        <v>0</v>
-      </c>
-      <c r="S6" s="1">
-        <v>0</v>
-      </c>
-      <c r="T6" s="1">
+      <c r="Q6" s="3">
+        <v>0</v>
+      </c>
+      <c r="R6" s="3">
+        <v>0</v>
+      </c>
+      <c r="S6" s="3">
+        <v>0</v>
+      </c>
+      <c r="T6" s="3">
         <v>16</v>
       </c>
-      <c r="U6" s="1">
-        <v>0</v>
-      </c>
-      <c r="V6" s="1">
-        <v>0</v>
-      </c>
-      <c r="W6" s="1">
-        <v>0</v>
-      </c>
+      <c r="U6" s="3">
+        <v>0</v>
+      </c>
+      <c r="V6" s="3">
+        <v>0</v>
+      </c>
+      <c r="W6" s="5"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W7" s="5"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W8" s="5"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
@@ -5677,10 +5669,10 @@
         <v>0</v>
       </c>
       <c r="G12" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H12" s="3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I12" s="3">
         <v>1</v>
@@ -6189,6 +6181,42 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B3:L6 B12:L15 B21:L24">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q4:V4">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q6:V6">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q4:V4 Q6:V6">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -6200,7 +6228,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q4:W4">
+  <conditionalFormatting sqref="Q12">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -6212,7 +6240,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q5:W5">
+  <conditionalFormatting sqref="Q13">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -6224,7 +6252,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q6:W6">
+  <conditionalFormatting sqref="Q14">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -6236,7 +6264,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q4:W6">
+  <conditionalFormatting sqref="Q18:V18">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -6248,7 +6276,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q12">
+  <conditionalFormatting sqref="Q19:V19">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -6260,7 +6288,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q13">
+  <conditionalFormatting sqref="Q20:V20">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -6272,7 +6300,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q14">
+  <conditionalFormatting sqref="Q18:V20">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -6284,7 +6312,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q18:V18">
+  <conditionalFormatting sqref="Q26:U26">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -6296,7 +6324,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q19:V19">
+  <conditionalFormatting sqref="Q27:U27">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -6308,7 +6336,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q20:V20">
+  <conditionalFormatting sqref="Q28:U28">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -6320,7 +6348,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q18:V20">
+  <conditionalFormatting sqref="Q26:U28">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -6332,7 +6360,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q26:U26">
+  <conditionalFormatting sqref="Q5:V5">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -6344,7 +6372,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q27:U27">
+  <conditionalFormatting sqref="Q4:V6">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -6356,7 +6384,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q28:U28">
+  <conditionalFormatting sqref="B12:L15">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -6368,7 +6396,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q26:U28">
+  <conditionalFormatting sqref="Q4:V6">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
